--- a/table_templates/First шаблон.xlsx
+++ b/table_templates/First шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F540E1-715F-4655-8BD7-B2A3C1B4DD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D085DF-8D55-4223-AB67-4298E33B9292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ФИО</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Курс</t>
   </si>
   <si>
-    <t>Телефон</t>
-  </si>
-  <si>
     <t>emailстуд</t>
   </si>
   <si>
@@ -186,36 +183,38 @@
     <t>год</t>
   </si>
   <si>
+    <t>НачалоПрактики</t>
+  </si>
+  <si>
+    <t>КонецПрактики</t>
+  </si>
+  <si>
+    <t>КафедраНазвание</t>
+  </si>
+  <si>
+    <t>темаВКР</t>
+  </si>
+  <si>
     <t>телефон</t>
   </si>
   <si>
-    <t>Кафедра</t>
-  </si>
-  <si>
-    <t>НачалоПрактики</t>
-  </si>
-  <si>
-    <t>КонецПрактики</t>
+    <t>ВладелецРП</t>
+  </si>
+  <si>
+    <t>ДатаСозданияУстава</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -232,12 +231,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -273,20 +284,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,333 +582,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="26.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="27" style="4" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="26.21875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="26.44140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="26.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" style="4" customWidth="1"/>
-    <col min="21" max="23" width="26.77734375" style="4" customWidth="1"/>
-    <col min="24" max="25" width="26.44140625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="26.21875" style="4" customWidth="1"/>
-    <col min="27" max="28" width="26.5546875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="26.21875" style="4" customWidth="1"/>
-    <col min="30" max="32" width="26.5546875" style="4" customWidth="1"/>
-    <col min="33" max="33" width="27" style="4" customWidth="1"/>
-    <col min="34" max="34" width="26.77734375" style="4" customWidth="1"/>
-    <col min="35" max="35" width="27" style="4" customWidth="1"/>
-    <col min="36" max="36" width="26.6640625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="26.44140625" style="4" customWidth="1"/>
-    <col min="38" max="39" width="26.77734375" style="4" customWidth="1"/>
-    <col min="40" max="40" width="26.6640625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="26.5546875" style="4" customWidth="1"/>
-    <col min="42" max="43" width="26.6640625" style="4" customWidth="1"/>
-    <col min="44" max="45" width="27" style="4" customWidth="1"/>
-    <col min="46" max="46" width="26.5546875" style="4" customWidth="1"/>
-    <col min="47" max="47" width="26.6640625" style="4" customWidth="1"/>
-    <col min="48" max="48" width="26.77734375" style="4" customWidth="1"/>
-    <col min="49" max="49" width="27.21875" style="4" customWidth="1"/>
-    <col min="50" max="50" width="26.21875" style="4" customWidth="1"/>
-    <col min="51" max="51" width="25.6640625" style="4" customWidth="1"/>
-    <col min="52" max="52" width="26.5546875" style="4" customWidth="1"/>
-    <col min="53" max="53" width="26.6640625" style="4" customWidth="1"/>
-    <col min="54" max="54" width="26.5546875" style="4" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="26.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="26.7109375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="26.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="26.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.28515625" style="1" customWidth="1"/>
+    <col min="30" max="32" width="26.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="27" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="27" style="1" customWidth="1"/>
+    <col min="36" max="36" width="26.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="26.42578125" style="1" customWidth="1"/>
+    <col min="38" max="40" width="26.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="26.5703125" style="1" customWidth="1"/>
+    <col min="42" max="43" width="26.7109375" style="1" customWidth="1"/>
+    <col min="44" max="45" width="27" style="1" customWidth="1"/>
+    <col min="46" max="46" width="26.5703125" style="1" customWidth="1"/>
+    <col min="47" max="48" width="26.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="27.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="26.28515625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="25.7109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="26.5703125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="26.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.5703125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="26" style="1" customWidth="1"/>
+    <col min="56" max="56" width="26.42578125" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:73" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="T1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BF1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BU1" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
